--- a/NicheNet_output/ligand_one_ANANSE_48.xlsx
+++ b/NicheNet_output/ligand_one_ANANSE_48.xlsx
@@ -778,13 +778,13 @@
         <v>1.308793882899778</v>
       </c>
       <c r="H9">
-        <v>0.8323168977422505</v>
+        <v>0.8029480102257021</v>
       </c>
       <c r="I9">
         <v>0.4771212547196626</v>
       </c>
       <c r="J9">
-        <v>0.973414660939846</v>
+        <v>0.9695841620457818</v>
       </c>
       <c r="K9">
         <v>0.8660254037844387</v>
@@ -1342,13 +1342,13 @@
         <v>0.3149103364056896</v>
       </c>
       <c r="H21">
-        <v>0.1099193888516239</v>
+        <v>0.103627936568323</v>
       </c>
       <c r="I21">
         <v>-0</v>
       </c>
       <c r="J21">
-        <v>0.3440659921649994</v>
+        <v>-0.3273031437270043</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1906,13 +1906,13 @@
         <v>0.3149103364056896</v>
       </c>
       <c r="H33">
-        <v>0.1047060382343973</v>
+        <v>0.0763405313226298</v>
       </c>
       <c r="I33">
         <v>-0</v>
       </c>
       <c r="J33">
-        <v>-0.3302004317877273</v>
+        <v>-0.2505121057087612</v>
       </c>
       <c r="K33">
         <v>0</v>

--- a/NicheNet_output/ligand_one_ANANSE_48.xlsx
+++ b/NicheNet_output/ligand_one_ANANSE_48.xlsx
@@ -449,13 +449,13 @@
         <v>1.308793882899778</v>
       </c>
       <c r="H2">
-        <v>0.8792926490472444</v>
+        <v>1.433440470587058</v>
       </c>
       <c r="I2">
         <v>0.4771212547196626</v>
       </c>
       <c r="J2">
-        <v>0.9785677871735374</v>
+        <v>0.9983242567233978</v>
       </c>
       <c r="K2">
         <v>0.8660254037844387</v>
@@ -496,13 +496,13 @@
         <v>1.308793882899778</v>
       </c>
       <c r="H3">
-        <v>0.8378772591317771</v>
+        <v>1.069578420641857</v>
       </c>
       <c r="I3">
         <v>0.4771212547196626</v>
       </c>
       <c r="J3">
-        <v>0.9740838556636113</v>
+        <v>0.9910586178921419</v>
       </c>
       <c r="K3">
         <v>0.8660254037844387</v>
@@ -543,13 +543,13 @@
         <v>1.308793882899778</v>
       </c>
       <c r="H4">
-        <v>0.8378772591317771</v>
+        <v>1.069578420641857</v>
       </c>
       <c r="I4">
         <v>0.4771212547196626</v>
       </c>
       <c r="J4">
-        <v>0.9740838556636113</v>
+        <v>0.9910586178921419</v>
       </c>
       <c r="K4">
         <v>0.8660254037844387</v>
@@ -572,34 +572,34 @@
         </is>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="D5">
-        <v>0.6666666666666667</v>
+        <v>-0.08333333333333332</v>
       </c>
       <c r="E5">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="F5">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G5">
-        <v>1.308793882899778</v>
+        <v>0.3149103364056896</v>
       </c>
       <c r="H5">
-        <v>1.463720598444021</v>
+        <v>0.01015293435602717</v>
       </c>
       <c r="I5">
-        <v>0.4771212547196626</v>
+        <v>-0</v>
       </c>
       <c r="J5">
-        <v>0.9985423172222581</v>
+        <v>0.03628818149659224</v>
       </c>
       <c r="K5">
-        <v>0.8660254037844387</v>
+        <v>0</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
@@ -637,13 +637,13 @@
         <v>1.308793882899778</v>
       </c>
       <c r="H6">
-        <v>0.6777734741108582</v>
+        <v>0.9643973750842382</v>
       </c>
       <c r="I6">
         <v>0.4771212547196626</v>
       </c>
       <c r="J6">
-        <v>0.9460835797128544</v>
+        <v>0.9855001778642396</v>
       </c>
       <c r="K6">
         <v>0.8660254037844387</v>
@@ -684,13 +684,13 @@
         <v>1.308793882899778</v>
       </c>
       <c r="H7">
-        <v>0.8874222686715774</v>
+        <v>1.475584490464864</v>
       </c>
       <c r="I7">
         <v>0.4771212547196626</v>
       </c>
       <c r="J7">
-        <v>0.9793526165188262</v>
+        <v>0.9986198037272793</v>
       </c>
       <c r="K7">
         <v>0.8660254037844387</v>
@@ -731,13 +731,13 @@
         <v>1.308793882899778</v>
       </c>
       <c r="H8">
-        <v>0.9924307203278123</v>
+        <v>2.15172700283182</v>
       </c>
       <c r="I8">
         <v>0.4771212547196626</v>
       </c>
       <c r="J8">
-        <v>0.987252545741643</v>
+        <v>0.9999386589348925</v>
       </c>
       <c r="K8">
         <v>0.8660254037844387</v>
@@ -778,13 +778,13 @@
         <v>1.308793882899778</v>
       </c>
       <c r="H9">
-        <v>0.8029480102257021</v>
+        <v>3.071894024601775</v>
       </c>
       <c r="I9">
         <v>0.4771212547196626</v>
       </c>
       <c r="J9">
-        <v>0.9695841620457818</v>
+        <v>0.9999991140246375</v>
       </c>
       <c r="K9">
         <v>0.8660254037844387</v>
@@ -807,34 +807,34 @@
         </is>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>-0.1666666666666667</v>
+        <v>0.6666666666666667</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G10">
-        <v>0.03365636435147774</v>
+        <v>1.308793882899778</v>
       </c>
       <c r="H10">
-        <v>0.2149577031406414</v>
+        <v>0.525107006216611</v>
       </c>
       <c r="I10">
-        <v>0.4771212547196624</v>
+        <v>0.4771212547196626</v>
       </c>
       <c r="J10">
-        <v>-0.5755239960297555</v>
+        <v>0.8920987855334633</v>
       </c>
       <c r="K10">
-        <v>-0.8660254037844387</v>
+        <v>0.8660254037844387</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
@@ -872,13 +872,13 @@
         <v>1.308793882899778</v>
       </c>
       <c r="H11">
-        <v>0.8884716575093791</v>
+        <v>1.475826123697565</v>
       </c>
       <c r="I11">
         <v>0.4771212547196626</v>
       </c>
       <c r="J11">
-        <v>0.9794518143364905</v>
+        <v>0.9986213383504744</v>
       </c>
       <c r="K11">
         <v>0.8660254037844387</v>
@@ -901,34 +901,34 @@
         </is>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="D12">
-        <v>-0.1666666666666667</v>
+        <v>0.6666666666666667</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G12">
-        <v>0.03365636435147774</v>
+        <v>1.308793882899778</v>
       </c>
       <c r="H12">
-        <v>0.2231906900695687</v>
+        <v>0.4404995397417823</v>
       </c>
       <c r="I12">
-        <v>0.4771212547196624</v>
+        <v>0.4771212547196626</v>
       </c>
       <c r="J12">
-        <v>-0.5901351411156993</v>
+        <v>0.8420811387512198</v>
       </c>
       <c r="K12">
-        <v>-0.8660254037844387</v>
+        <v>0.8660254037844387</v>
       </c>
       <c r="L12" t="inlineStr">
         <is>
@@ -966,13 +966,13 @@
         <v>1.308793882899778</v>
       </c>
       <c r="H13">
-        <v>0.8683830779877656</v>
+        <v>1.466379365373171</v>
       </c>
       <c r="I13">
         <v>0.4771212547196626</v>
       </c>
       <c r="J13">
-        <v>0.9774676816086714</v>
+        <v>0.9985600521184825</v>
       </c>
       <c r="K13">
         <v>0.8660254037844387</v>
@@ -1013,13 +1013,13 @@
         <v>0.3149103364056896</v>
       </c>
       <c r="H14">
-        <v>0.007199665623404002</v>
+        <v>0.05420101034463711</v>
       </c>
       <c r="I14">
         <v>-0</v>
       </c>
       <c r="J14">
-        <v>0.02582288462773155</v>
+        <v>0.1832579832935976</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1060,13 +1060,13 @@
         <v>0.3149103364056896</v>
       </c>
       <c r="H15">
-        <v>0.009707894041720679</v>
+        <v>0.1453523947567672</v>
       </c>
       <c r="I15">
         <v>-0</v>
       </c>
       <c r="J15">
-        <v>-0.03471589887090056</v>
+        <v>-0.4320758353855642</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1107,13 +1107,13 @@
         <v>0.3149103364056896</v>
       </c>
       <c r="H16">
-        <v>0.009707894041720679</v>
+        <v>0.1453523947567672</v>
       </c>
       <c r="I16">
         <v>-0</v>
       </c>
       <c r="J16">
-        <v>-0.03471589887090056</v>
+        <v>-0.4320758353855642</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1136,34 +1136,34 @@
         </is>
       </c>
       <c r="B17">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C17">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="D17">
-        <v>-0.08333333333333332</v>
+        <v>0.6666666666666667</v>
       </c>
       <c r="E17">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="F17">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G17">
-        <v>0.3149103364056896</v>
+        <v>1.308793882899778</v>
       </c>
       <c r="H17">
-        <v>0.06610174685109344</v>
+        <v>0.2581121605470465</v>
       </c>
       <c r="I17">
-        <v>-0</v>
+        <v>0.4771212547196626</v>
       </c>
       <c r="J17">
-        <v>-0.2199635730705906</v>
+        <v>0.64713395028833</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.8660254037844387</v>
       </c>
       <c r="L17" t="inlineStr">
         <is>
@@ -1201,13 +1201,13 @@
         <v>0.3149103364056896</v>
       </c>
       <c r="H18">
-        <v>0.03185912613473155</v>
+        <v>0.01438836330508492</v>
       </c>
       <c r="I18">
         <v>-0</v>
       </c>
       <c r="J18">
-        <v>0.1108774791542416</v>
+        <v>0.05116617637725809</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1248,13 +1248,13 @@
         <v>0.3149103364056896</v>
       </c>
       <c r="H19">
-        <v>0.003285709141077902</v>
+        <v>0.05119641225527386</v>
       </c>
       <c r="I19">
         <v>-0</v>
       </c>
       <c r="J19">
-        <v>0.01183893721141906</v>
+        <v>0.1737871315966466</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1295,13 +1295,13 @@
         <v>0.3149103364056896</v>
       </c>
       <c r="H20">
-        <v>0.007351434325567662</v>
+        <v>0.1450693982881887</v>
       </c>
       <c r="I20">
         <v>-0</v>
       </c>
       <c r="J20">
-        <v>-0.02636251246178208</v>
+        <v>-0.4314149744912779</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1324,34 +1324,34 @@
         </is>
       </c>
       <c r="B21">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C21">
-        <v>0.25</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="D21">
-        <v>-0.08333333333333332</v>
+        <v>-0.1666666666666667</v>
       </c>
       <c r="E21">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="G21">
-        <v>0.3149103364056896</v>
+        <v>0.03365636435147774</v>
       </c>
       <c r="H21">
-        <v>0.103627936568323</v>
+        <v>0.1779032959930424</v>
       </c>
       <c r="I21">
-        <v>-0</v>
+        <v>0.4771212547196624</v>
       </c>
       <c r="J21">
-        <v>-0.3273031437270043</v>
+        <v>-0.5037712725719815</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>-0.8660254037844387</v>
       </c>
       <c r="L21" t="inlineStr">
         <is>
@@ -1371,34 +1371,34 @@
         </is>
       </c>
       <c r="B22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C22">
-        <v>0.25</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="D22">
-        <v>-0.08333333333333332</v>
+        <v>-0.1666666666666667</v>
       </c>
       <c r="E22">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="G22">
-        <v>0.3149103364056896</v>
+        <v>0.03365636435147774</v>
       </c>
       <c r="H22">
-        <v>0.1446410054960768</v>
+        <v>0.2732249425301337</v>
       </c>
       <c r="I22">
-        <v>-0</v>
+        <v>0.4771212547196624</v>
       </c>
       <c r="J22">
-        <v>-0.43041331944705</v>
+        <v>-0.6694511005814864</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>-0.8660254037844387</v>
       </c>
       <c r="L22" t="inlineStr">
         <is>
@@ -1436,13 +1436,13 @@
         <v>0.3149103364056896</v>
       </c>
       <c r="H23">
-        <v>0.003136478864287592</v>
+        <v>0.05114714927415003</v>
       </c>
       <c r="I23">
         <v>-0</v>
       </c>
       <c r="J23">
-        <v>0.01130319935277256</v>
+        <v>0.1736311651452088</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1465,34 +1465,34 @@
         </is>
       </c>
       <c r="B24">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C24">
-        <v>0.25</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="D24">
-        <v>-0.08333333333333332</v>
+        <v>-0.1666666666666667</v>
       </c>
       <c r="E24">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="G24">
-        <v>0.3149103364056896</v>
+        <v>0.03365636435147774</v>
       </c>
       <c r="H24">
-        <v>0.1413377627876523</v>
+        <v>0.3167273958164714</v>
       </c>
       <c r="I24">
-        <v>-0</v>
+        <v>0.4771212547196624</v>
       </c>
       <c r="J24">
-        <v>-0.4226386452168121</v>
+        <v>-0.7265442495395083</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>-0.8660254037844387</v>
       </c>
       <c r="L24" t="inlineStr">
         <is>
@@ -1530,13 +1530,13 @@
         <v>0.3149103364056896</v>
       </c>
       <c r="H25">
-        <v>0.008306092223144336</v>
+        <v>0.05453714260524769</v>
       </c>
       <c r="I25">
         <v>-0</v>
       </c>
       <c r="J25">
-        <v>0.02975238556360988</v>
+        <v>0.1843124074805269</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1577,13 +1577,13 @@
         <v>0.3149103364056896</v>
       </c>
       <c r="H26">
-        <v>0.1522288578317242</v>
+        <v>0.01213871357234455</v>
       </c>
       <c r="I26">
         <v>-0</v>
       </c>
       <c r="J26">
-        <v>-0.4479313119048357</v>
+        <v>-0.04328299591940156</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -1624,13 +1624,13 @@
         <v>0.3149103364056896</v>
       </c>
       <c r="H27">
-        <v>0.1101264347746562</v>
+        <v>0.100917540446385</v>
       </c>
       <c r="I27">
         <v>-0</v>
       </c>
       <c r="J27">
-        <v>-0.3446117166405383</v>
+        <v>-0.3199737343985115</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -1671,13 +1671,13 @@
         <v>0.3149103364056896</v>
       </c>
       <c r="H28">
-        <v>0.1101264347746562</v>
+        <v>0.100917540446385</v>
       </c>
       <c r="I28">
         <v>-0</v>
       </c>
       <c r="J28">
-        <v>-0.3446117166405383</v>
+        <v>-0.3199737343985115</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -1718,13 +1718,13 @@
         <v>0.03365636435147774</v>
       </c>
       <c r="H29">
-        <v>0.2523537012213871</v>
+        <v>1.717396852619369</v>
       </c>
       <c r="I29">
         <v>0.4771212547196624</v>
       </c>
       <c r="J29">
-        <v>-0.6382685238905954</v>
+        <v>-0.9995467025878841</v>
       </c>
       <c r="K29">
         <v>-0.8660254037844387</v>
@@ -1765,13 +1765,13 @@
         <v>0.3149103364056896</v>
       </c>
       <c r="H30">
-        <v>0.1086184512119086</v>
+        <v>0.04284167361597265</v>
       </c>
       <c r="I30">
         <v>-0</v>
       </c>
       <c r="J30">
-        <v>-0.3406284050234149</v>
+        <v>0.1470212531304725</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0.3149103364056896</v>
       </c>
       <c r="H31">
-        <v>0.155181211545884</v>
+        <v>0.01606960267895004</v>
       </c>
       <c r="I31">
         <v>-0</v>
       </c>
       <c r="J31">
-        <v>-0.4546201396317646</v>
+        <v>-0.05702889909664384</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -1859,13 +1859,13 @@
         <v>0.3149103364056896</v>
       </c>
       <c r="H32">
-        <v>0.1236521075133237</v>
+        <v>0.1516686023760723</v>
       </c>
       <c r="I32">
         <v>-0</v>
       </c>
       <c r="J32">
-        <v>-0.3794517965601239</v>
+        <v>-0.4466539949031739</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -1906,13 +1906,13 @@
         <v>0.3149103364056896</v>
       </c>
       <c r="H33">
-        <v>0.0763405313226298</v>
+        <v>0.1632783684894818</v>
       </c>
       <c r="I33">
         <v>-0</v>
       </c>
       <c r="J33">
-        <v>-0.2505121057087612</v>
+        <v>-0.472604025190433</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -1935,34 +1935,34 @@
         </is>
       </c>
       <c r="B34">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="D34">
-        <v>0.6666666666666667</v>
+        <v>-0.08333333333333332</v>
       </c>
       <c r="E34">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="F34">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G34">
-        <v>1.308793882899778</v>
+        <v>0.3149103364056896</v>
       </c>
       <c r="H34">
-        <v>0.8329175516176743</v>
+        <v>0.04895521318827138</v>
       </c>
       <c r="I34">
-        <v>0.4771212547196626</v>
+        <v>-0</v>
       </c>
       <c r="J34">
-        <v>0.9734877711565734</v>
+        <v>-0.1666691926692418</v>
       </c>
       <c r="K34">
-        <v>0.8660254037844387</v>
+        <v>0</v>
       </c>
       <c r="L34" t="inlineStr">
         <is>
@@ -2000,13 +2000,13 @@
         <v>0.3149103364056896</v>
       </c>
       <c r="H35">
-        <v>0.1552421130556041</v>
+        <v>0.01615370582185003</v>
       </c>
       <c r="I35">
         <v>-0</v>
       </c>
       <c r="J35">
-        <v>-0.454757372843989</v>
+        <v>-0.05732153332177219</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -2029,34 +2029,34 @@
         </is>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="C36">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="D36">
-        <v>0.6666666666666667</v>
+        <v>-0.08333333333333332</v>
       </c>
       <c r="E36">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="F36">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G36">
-        <v>1.308793882899778</v>
+        <v>0.3149103364056896</v>
       </c>
       <c r="H36">
-        <v>0.774127751299902</v>
+        <v>0.01756424855791728</v>
       </c>
       <c r="I36">
-        <v>0.4771212547196626</v>
+        <v>-0</v>
       </c>
       <c r="J36">
-        <v>0.9652922957408576</v>
+        <v>-0.06222028501676476</v>
       </c>
       <c r="K36">
-        <v>0.8660254037844387</v>
+        <v>0</v>
       </c>
       <c r="L36" t="inlineStr">
         <is>
@@ -2094,13 +2094,13 @@
         <v>0.3149103364056896</v>
       </c>
       <c r="H37">
-        <v>0.1540144616482992</v>
+        <v>0.01297564020675034</v>
       </c>
       <c r="I37">
         <v>-0</v>
       </c>
       <c r="J37">
-        <v>-0.4519852231158035</v>
+        <v>-0.04622085096180423</v>
       </c>
       <c r="K37">
         <v>0</v>
